--- a/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +452,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F94">
@@ -4911,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5005,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5016,53 +5016,6 @@
         </is>
       </c>
       <c r="L96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>18</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L97">
         <v>0</v>
       </c>
     </row>

--- a/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3077,12 +3077,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F57">
@@ -3092,14 +3092,14 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L57">
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I59">
         <v>-1</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>-1</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I61">
         <v>-1</v>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F63">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F64">
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I64">
         <v>-1</v>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I65">
         <v>-1</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F66">
@@ -3515,14 +3515,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L66">
@@ -3562,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3614,19 +3619,14 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I68">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L68">
@@ -3666,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70">
         <v>15</v>
@@ -3760,14 +3760,19 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L71">
@@ -3797,7 +3802,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F72">
@@ -3807,19 +3812,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I72">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L72">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I74">
         <v>-1</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I75">
         <v>-1</v>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I76">
         <v>-1</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F77">
@@ -4047,14 +4047,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I77">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L77">
@@ -4084,7 +4089,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F78">
@@ -4094,14 +4099,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L78">
@@ -4131,7 +4136,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F79">
@@ -4141,19 +4146,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I79">
-        <v>85</v>
+        <v>-1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L79">
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I80">
         <v>-1</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SPICFLE</t>
         </is>
       </c>
       <c r="F81">
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I81">
         <v>-1</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SPICFLE</t>
         </is>
       </c>
       <c r="F82">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I82">
         <v>-1</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SPICFLE</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F83">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I83">
         <v>-1</v>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SPICFLE</t>
+          <t>GOBIQUA</t>
         </is>
       </c>
       <c r="F84">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="I84">
         <v>-1</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>GOBIQUA</t>
         </is>
       </c>
       <c r="F85">
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="I85">
         <v>-1</v>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F86">
@@ -4475,18 +4475,28 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="I86">
-        <v>-1</v>
+        <v>196</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L86">
         <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>SS7746</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4512,7 +4522,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F87">
@@ -4522,18 +4532,28 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="I87">
-        <v>-1</v>
+        <v>203</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L87">
         <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>SS7747</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4569,19 +4589,19 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I88">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L88">
@@ -4589,7 +4609,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>SS7746</t>
+          <t>SS7748</t>
         </is>
       </c>
     </row>
@@ -4626,19 +4646,19 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I89">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L89">
@@ -4646,7 +4666,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>SS7747</t>
+          <t>SS7749</t>
         </is>
       </c>
     </row>
@@ -4683,10 +4703,10 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="I90">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4703,7 +4723,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>SS7748</t>
+          <t>SS7750</t>
         </is>
       </c>
     </row>
@@ -4740,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I91">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>SS7749</t>
+          <t>SS7751</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4807,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F92">
@@ -4797,28 +4817,18 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="I92">
-        <v>391</v>
+        <v>2</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>SS7750</t>
-        </is>
       </c>
     </row>
     <row r="93">
@@ -4844,7 +4854,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F93">
@@ -4854,28 +4864,18 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="I93">
-        <v>324</v>
+        <v>2</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>SS7751</t>
-        </is>
       </c>
     </row>
     <row r="94">
@@ -4911,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4922,100 +4922,6 @@
         </is>
       </c>
       <c r="L94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>20</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>18</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L96">
         <v>0</v>
       </c>
     </row>
